--- a/backend/fiche/fiche21.13.12195.xlsx
+++ b/backend/fiche/fiche21.13.12195.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>sécrétariat général</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>Observation</t>
+  </si>
+  <si>
+    <t>Photocopieur Taskalfa 1800</t>
+  </si>
+  <si>
+    <t>Photocopieur monochrome multifonction</t>
+  </si>
+  <si>
+    <t>Photocopieur XEROX WorkCentre 5335</t>
+  </si>
+  <si>
+    <t>Photocopieur LEX MARK MX510</t>
+  </si>
+  <si>
+    <t>Photorecepteur pour panasonic dp 8060</t>
   </si>
   <si>
     <t>Magasinier</t>
@@ -129,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -147,6 +162,16 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,12 +460,161 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
     <row r="13">
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
+      <c r="A13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
